--- a/final_result.XLSX
+++ b/final_result.XLSX
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\natega\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D2BF1C-0A34-4B0F-B4D3-609FFF2EC29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7382631-B449-40AC-B79D-564DF7AD9B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="150">
   <si>
     <t>اسراء عيد محمد محمد البيلي</t>
   </si>
@@ -462,9 +463,6 @@
     <t>التربية الدينية</t>
   </si>
   <si>
-    <t>التربية الوطنية</t>
-  </si>
-  <si>
     <t>الاقتصاد والإحصاء</t>
   </si>
   <si>
@@ -472,13 +470,19 @@
   </si>
   <si>
     <t>دور ثاني</t>
+  </si>
+  <si>
+    <t>نتيجة الصف الثالث الثانوي 2023</t>
+  </si>
+  <si>
+    <t>ادخل رقم الجلوس</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,8 +504,52 @@
       <color theme="0"/>
       <name val="Greta"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Greta"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,8 +562,14 @@
         <bgColor rgb="FF4472C4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -523,11 +577,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -536,11 +643,45 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -565,9 +706,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -582,16 +720,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{307E1DAF-A519-40BB-938A-A4C5D7D0849D}" name="Table1" displayName="Table1" ref="A1:U125" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:U125" xr:uid="{307E1DAF-A519-40BB-938A-A4C5D7D0849D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{307E1DAF-A519-40BB-938A-A4C5D7D0849D}" name="Table1" displayName="Table1" ref="A1:T125" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:T125" xr:uid="{307E1DAF-A519-40BB-938A-A4C5D7D0849D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T125">
     <sortCondition descending="1" ref="D1:D125"/>
   </sortState>
-  <tableColumns count="21">
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{362B1EB9-3D74-4113-A1C6-B0E9565CF530}" name="رقم الجلوس"/>
     <tableColumn id="2" xr3:uid="{CFDE6F10-AB46-49D2-8C93-64DE05EA5B47}" name="الاسم"/>
     <tableColumn id="3" xr3:uid="{B9CEFF8B-4288-41C7-A4E1-31C3448FA602}" name="المجموع"/>
-    <tableColumn id="4" xr3:uid="{7F5A5462-0327-4B87-BB68-630B721F4516}" name="النسبة" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{7F5A5462-0327-4B87-BB68-630B721F4516}" name="النسبة" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{BE6B72DB-301E-495C-AC8E-A6A3F81D30A7}" name="حالة الطالب"/>
     <tableColumn id="6" xr3:uid="{79C20559-2E46-4EE3-8212-BD25CFB71209}" name="عربي"/>
     <tableColumn id="7" xr3:uid="{71211C41-96D9-4565-A9D6-21AA4A22FA4C}" name="اللغة الأجنبية الثانية"/>
@@ -607,7 +745,6 @@
     <tableColumn id="17" xr3:uid="{D4BDD2AC-7F6E-42EF-A22B-84BD091D9909}" name="مجموع الرياضيات البحتة"/>
     <tableColumn id="18" xr3:uid="{5EDDD728-7891-478E-88CD-E14D8986C240}" name="الرياضيات التطبيقية"/>
     <tableColumn id="19" xr3:uid="{FE7F2AFC-CF69-4635-B08C-F9F3208DEB1D}" name="التربية الدينية"/>
-    <tableColumn id="20" xr3:uid="{8AEE5847-CD5D-45FE-9F80-F77410132640}" name="التربية الوطنية"/>
     <tableColumn id="21" xr3:uid="{6CD3CAC2-C056-46B8-9859-F342DC704A26}" name="الاقتصاد والإحصاء"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -877,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U125"/>
+  <dimension ref="A1:T125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.109375" defaultRowHeight="14.4"/>
@@ -893,7 +1030,7 @@
     <col min="6" max="6" width="17.109375" customWidth="1"/>
     <col min="7" max="7" width="15.44140625" customWidth="1"/>
     <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
     <col min="10" max="10" width="8.33203125" customWidth="1"/>
     <col min="11" max="11" width="13.44140625" customWidth="1"/>
     <col min="12" max="12" width="16.33203125" customWidth="1"/>
@@ -904,11 +1041,10 @@
     <col min="17" max="17" width="19" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" customWidth="1"/>
     <col min="19" max="19" width="11.6640625" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" customWidth="1"/>
-    <col min="21" max="21" width="14.88671875" customWidth="1"/>
+    <col min="20" max="20" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>126</v>
       </c>
@@ -969,11 +1105,8 @@
       <c r="T1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>1459586</v>
       </c>
@@ -987,7 +1120,7 @@
         <v>0.92679999999999996</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F2">
         <v>76.5</v>
@@ -1032,13 +1165,10 @@
         <v>22</v>
       </c>
       <c r="T2">
-        <v>380</v>
-      </c>
-      <c r="U2">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>1459568</v>
       </c>
@@ -1052,7 +1182,7 @@
         <v>0.92320000000000002</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F3">
         <v>79.5</v>
@@ -1097,13 +1227,10 @@
         <v>18</v>
       </c>
       <c r="T3">
-        <v>378.5</v>
-      </c>
-      <c r="U3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>1459585</v>
       </c>
@@ -1117,7 +1244,7 @@
         <v>0.91459999999999997</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F4">
         <v>71.5</v>
@@ -1162,13 +1289,10 @@
         <v>21</v>
       </c>
       <c r="T4">
-        <v>375</v>
-      </c>
-      <c r="U4">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>1459587</v>
       </c>
@@ -1182,7 +1306,7 @@
         <v>0.90980000000000005</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5">
         <v>77.5</v>
@@ -1227,13 +1351,10 @@
         <v>22</v>
       </c>
       <c r="T5">
-        <v>373</v>
-      </c>
-      <c r="U5">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>1459577</v>
       </c>
@@ -1247,7 +1368,7 @@
         <v>0.90610000000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F6">
         <v>73.5</v>
@@ -1292,13 +1413,10 @@
         <v>20</v>
       </c>
       <c r="T6">
-        <v>371.5</v>
-      </c>
-      <c r="U6">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>1459564</v>
       </c>
@@ -1312,7 +1430,7 @@
         <v>0.90490000000000004</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7">
         <v>79.5</v>
@@ -1357,13 +1475,10 @@
         <v>13</v>
       </c>
       <c r="T7">
-        <v>371</v>
-      </c>
-      <c r="U7">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>1459543</v>
       </c>
@@ -1377,7 +1492,7 @@
         <v>0.90369999999999995</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F8">
         <v>68.5</v>
@@ -1422,13 +1537,10 @@
         <v>21</v>
       </c>
       <c r="T8">
-        <v>370.5</v>
-      </c>
-      <c r="U8">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>1459589</v>
       </c>
@@ -1442,7 +1554,7 @@
         <v>0.88290000000000002</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F9">
         <v>74</v>
@@ -1487,13 +1599,10 @@
         <v>22</v>
       </c>
       <c r="T9">
-        <v>362</v>
-      </c>
-      <c r="U9">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>1459612</v>
       </c>
@@ -1507,7 +1616,7 @@
         <v>0.86950000000000005</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F10">
         <v>73</v>
@@ -1552,13 +1661,10 @@
         <v>22</v>
       </c>
       <c r="T10">
-        <v>356.5</v>
-      </c>
-      <c r="U10">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>1459535</v>
       </c>
@@ -1572,7 +1678,7 @@
         <v>0.83899999999999997</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F11">
         <v>67.5</v>
@@ -1617,13 +1723,10 @@
         <v>17</v>
       </c>
       <c r="T11">
-        <v>344</v>
-      </c>
-      <c r="U11">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>1459578</v>
       </c>
@@ -1637,7 +1740,7 @@
         <v>0.82930000000000004</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F12">
         <v>69.5</v>
@@ -1682,13 +1785,10 @@
         <v>15</v>
       </c>
       <c r="T12">
-        <v>340</v>
-      </c>
-      <c r="U12">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>1459561</v>
       </c>
@@ -1702,7 +1802,7 @@
         <v>0.82799999999999996</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F13">
         <v>77.5</v>
@@ -1747,13 +1847,10 @@
         <v>20</v>
       </c>
       <c r="T13">
-        <v>339.5</v>
-      </c>
-      <c r="U13">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>1459576</v>
       </c>
@@ -1767,7 +1864,7 @@
         <v>0.82440000000000002</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F14">
         <v>61.5</v>
@@ -1812,13 +1909,10 @@
         <v>17</v>
       </c>
       <c r="T14">
-        <v>338</v>
-      </c>
-      <c r="U14">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>1459636</v>
       </c>
@@ -1832,7 +1926,7 @@
         <v>0.81830000000000003</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F15">
         <v>73</v>
@@ -1877,13 +1971,10 @@
         <v>22</v>
       </c>
       <c r="T15">
-        <v>335.5</v>
-      </c>
-      <c r="U15">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>1459563</v>
       </c>
@@ -1897,7 +1988,7 @@
         <v>0.81589999999999996</v>
       </c>
       <c r="E16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F16">
         <v>73</v>
@@ -1942,13 +2033,10 @@
         <v>16</v>
       </c>
       <c r="T16">
-        <v>334.5</v>
-      </c>
-      <c r="U16">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>1459591</v>
       </c>
@@ -1962,7 +2050,7 @@
         <v>0.81340000000000001</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F17">
         <v>72</v>
@@ -2007,13 +2095,10 @@
         <v>17</v>
       </c>
       <c r="T17">
-        <v>333.5</v>
-      </c>
-      <c r="U17">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:20">
       <c r="A18">
         <v>1459581</v>
       </c>
@@ -2027,7 +2112,7 @@
         <v>0.8024</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F18">
         <v>69.5</v>
@@ -2072,13 +2157,10 @@
         <v>20</v>
       </c>
       <c r="T18">
-        <v>329</v>
-      </c>
-      <c r="U18">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>1459629</v>
       </c>
@@ -2092,7 +2174,7 @@
         <v>0.79510000000000003</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F19">
         <v>72.5</v>
@@ -2137,13 +2219,10 @@
         <v>21</v>
       </c>
       <c r="T19">
-        <v>326</v>
-      </c>
-      <c r="U19">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>1459604</v>
       </c>
@@ -2157,7 +2236,7 @@
         <v>0.79149999999999998</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F20">
         <v>69.5</v>
@@ -2202,13 +2281,10 @@
         <v>20</v>
       </c>
       <c r="T20">
-        <v>324.5</v>
-      </c>
-      <c r="U20">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>1459584</v>
       </c>
@@ -2222,7 +2298,7 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F21">
         <v>63</v>
@@ -2267,13 +2343,10 @@
         <v>22</v>
       </c>
       <c r="T21">
-        <v>323.5</v>
-      </c>
-      <c r="U21">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>1459601</v>
       </c>
@@ -2287,7 +2360,7 @@
         <v>0.78659999999999997</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F22">
         <v>69</v>
@@ -2332,13 +2405,10 @@
         <v>22</v>
       </c>
       <c r="T22">
-        <v>322.5</v>
-      </c>
-      <c r="U22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23">
         <v>1459537</v>
       </c>
@@ -2352,7 +2422,7 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F23">
         <v>52.5</v>
@@ -2397,13 +2467,10 @@
         <v>18</v>
       </c>
       <c r="T23">
-        <v>322</v>
-      </c>
-      <c r="U23">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:20">
       <c r="A24">
         <v>1459571</v>
       </c>
@@ -2417,7 +2484,7 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F24">
         <v>63</v>
@@ -2462,13 +2529,10 @@
         <v>21</v>
       </c>
       <c r="T24">
-        <v>322</v>
-      </c>
-      <c r="U24">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>1459611</v>
       </c>
@@ -2482,7 +2546,7 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F25">
         <v>69</v>
@@ -2527,13 +2591,10 @@
         <v>22</v>
       </c>
       <c r="T25">
-        <v>322</v>
-      </c>
-      <c r="U25">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>1459624</v>
       </c>
@@ -2547,7 +2608,7 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F26">
         <v>74.5</v>
@@ -2592,13 +2653,10 @@
         <v>23</v>
       </c>
       <c r="T26">
-        <v>322</v>
-      </c>
-      <c r="U26">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>1459541</v>
       </c>
@@ -2612,7 +2670,7 @@
         <v>0.77929999999999999</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F27">
         <v>59.5</v>
@@ -2657,13 +2715,10 @@
         <v>16</v>
       </c>
       <c r="T27">
-        <v>319.5</v>
-      </c>
-      <c r="U27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:20">
       <c r="A28">
         <v>1459582</v>
       </c>
@@ -2677,7 +2732,7 @@
         <v>0.7732</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F28">
         <v>64</v>
@@ -2722,13 +2777,10 @@
         <v>20</v>
       </c>
       <c r="T28">
-        <v>317</v>
-      </c>
-      <c r="U28">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>1459606</v>
       </c>
@@ -2742,7 +2794,7 @@
         <v>0.7732</v>
       </c>
       <c r="E29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F29">
         <v>48.5</v>
@@ -2787,13 +2839,10 @@
         <v>20</v>
       </c>
       <c r="T29">
-        <v>317</v>
-      </c>
-      <c r="U29">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:20">
       <c r="A30">
         <v>1459588</v>
       </c>
@@ -2807,7 +2856,7 @@
         <v>0.76949999999999996</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F30">
         <v>67.5</v>
@@ -2852,13 +2901,10 @@
         <v>19</v>
       </c>
       <c r="T30">
-        <v>315.5</v>
-      </c>
-      <c r="U30">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:20">
       <c r="A31">
         <v>1459566</v>
       </c>
@@ -2872,7 +2918,7 @@
         <v>0.76829999999999998</v>
       </c>
       <c r="E31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F31">
         <v>68.5</v>
@@ -2917,13 +2963,10 @@
         <v>13</v>
       </c>
       <c r="T31">
-        <v>315</v>
-      </c>
-      <c r="U31">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>1459596</v>
       </c>
@@ -2937,7 +2980,7 @@
         <v>0.76459999999999995</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F32">
         <v>65.5</v>
@@ -2982,13 +3025,10 @@
         <v>20</v>
       </c>
       <c r="T32">
-        <v>313.5</v>
-      </c>
-      <c r="U32">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:20">
       <c r="A33">
         <v>1459567</v>
       </c>
@@ -3002,7 +3042,7 @@
         <v>0.75980000000000003</v>
       </c>
       <c r="E33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F33">
         <v>58</v>
@@ -3047,13 +3087,10 @@
         <v>19</v>
       </c>
       <c r="T33">
-        <v>311.5</v>
-      </c>
-      <c r="U33">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:20">
       <c r="A34">
         <v>1459565</v>
       </c>
@@ -3067,7 +3104,7 @@
         <v>0.75849999999999995</v>
       </c>
       <c r="E34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F34">
         <v>65.5</v>
@@ -3112,13 +3149,10 @@
         <v>19</v>
       </c>
       <c r="T34">
-        <v>311</v>
-      </c>
-      <c r="U34">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35">
         <v>1459617</v>
       </c>
@@ -3132,7 +3166,7 @@
         <v>0.75849999999999995</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F35">
         <v>72</v>
@@ -3177,13 +3211,10 @@
         <v>19</v>
       </c>
       <c r="T35">
-        <v>311</v>
-      </c>
-      <c r="U35">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:20">
       <c r="A36">
         <v>1459651</v>
       </c>
@@ -3197,7 +3228,7 @@
         <v>0.75849999999999995</v>
       </c>
       <c r="E36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F36">
         <v>68</v>
@@ -3242,13 +3273,10 @@
         <v>19</v>
       </c>
       <c r="T36">
-        <v>311</v>
-      </c>
-      <c r="U36">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:20">
       <c r="A37">
         <v>1459615</v>
       </c>
@@ -3262,7 +3290,7 @@
         <v>0.75609999999999999</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F37">
         <v>66</v>
@@ -3307,13 +3335,10 @@
         <v>19</v>
       </c>
       <c r="T37">
-        <v>310</v>
-      </c>
-      <c r="U37">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:20">
       <c r="A38">
         <v>1459545</v>
       </c>
@@ -3327,7 +3352,7 @@
         <v>0.75490000000000002</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F38">
         <v>60</v>
@@ -3372,13 +3397,10 @@
         <v>19</v>
       </c>
       <c r="T38">
-        <v>309.5</v>
-      </c>
-      <c r="U38">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:20">
       <c r="A39">
         <v>1459627</v>
       </c>
@@ -3392,7 +3414,7 @@
         <v>0.75370000000000004</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F39">
         <v>71</v>
@@ -3437,13 +3459,10 @@
         <v>22</v>
       </c>
       <c r="T39">
-        <v>309</v>
-      </c>
-      <c r="U39">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:20">
       <c r="A40">
         <v>1459594</v>
       </c>
@@ -3457,7 +3476,7 @@
         <v>0.74760000000000004</v>
       </c>
       <c r="E40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F40">
         <v>61</v>
@@ -3502,13 +3521,10 @@
         <v>20</v>
       </c>
       <c r="T40">
-        <v>306.5</v>
-      </c>
-      <c r="U40">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:20">
       <c r="A41">
         <v>1459575</v>
       </c>
@@ -3522,7 +3538,7 @@
         <v>0.74509999999999998</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F41">
         <v>61</v>
@@ -3567,13 +3583,10 @@
         <v>18</v>
       </c>
       <c r="T41">
-        <v>305.5</v>
-      </c>
-      <c r="U41">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:20">
       <c r="A42">
         <v>1459569</v>
       </c>
@@ -3587,7 +3600,7 @@
         <v>0.74270000000000003</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F42">
         <v>69.5</v>
@@ -3632,13 +3645,10 @@
         <v>18</v>
       </c>
       <c r="T42">
-        <v>304.5</v>
-      </c>
-      <c r="U42">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:20">
       <c r="A43">
         <v>1459646</v>
       </c>
@@ -3652,7 +3662,7 @@
         <v>0.74150000000000005</v>
       </c>
       <c r="E43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F43">
         <v>70.5</v>
@@ -3697,13 +3707,10 @@
         <v>19</v>
       </c>
       <c r="T43">
-        <v>304</v>
-      </c>
-      <c r="U43">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:20">
       <c r="A44">
         <v>1459603</v>
       </c>
@@ -3717,7 +3724,7 @@
         <v>0.74019999999999997</v>
       </c>
       <c r="E44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F44">
         <v>40.5</v>
@@ -3762,13 +3769,10 @@
         <v>20</v>
       </c>
       <c r="T44">
-        <v>303.5</v>
-      </c>
-      <c r="U44">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45">
         <v>1459638</v>
       </c>
@@ -3782,7 +3786,7 @@
         <v>0.74019999999999997</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F45">
         <v>62</v>
@@ -3827,13 +3831,10 @@
         <v>21</v>
       </c>
       <c r="T45">
-        <v>303.5</v>
-      </c>
-      <c r="U45">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:20">
       <c r="A46">
         <v>1459597</v>
       </c>
@@ -3847,7 +3848,7 @@
         <v>0.73780000000000001</v>
       </c>
       <c r="E46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F46">
         <v>66.5</v>
@@ -3892,13 +3893,10 @@
         <v>19</v>
       </c>
       <c r="T46">
-        <v>302.5</v>
-      </c>
-      <c r="U46">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:20">
       <c r="A47">
         <v>1459614</v>
       </c>
@@ -3912,7 +3910,7 @@
         <v>0.73660000000000003</v>
       </c>
       <c r="E47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F47">
         <v>67.5</v>
@@ -3957,13 +3955,10 @@
         <v>17</v>
       </c>
       <c r="T47">
-        <v>302</v>
-      </c>
-      <c r="U47">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:20">
       <c r="A48">
         <v>1459637</v>
       </c>
@@ -3977,7 +3972,7 @@
         <v>0.7329</v>
       </c>
       <c r="E48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F48">
         <v>57</v>
@@ -4022,13 +4017,10 @@
         <v>19</v>
       </c>
       <c r="T48">
-        <v>300.5</v>
-      </c>
-      <c r="U48">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:20">
       <c r="A49">
         <v>1459562</v>
       </c>
@@ -4042,7 +4034,7 @@
         <v>0.73170000000000002</v>
       </c>
       <c r="E49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F49">
         <v>59.5</v>
@@ -4087,13 +4079,10 @@
         <v>13</v>
       </c>
       <c r="T49">
-        <v>300</v>
-      </c>
-      <c r="U49">
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:20">
       <c r="A50">
         <v>1459623</v>
       </c>
@@ -4107,7 +4096,7 @@
         <v>0.73050000000000004</v>
       </c>
       <c r="E50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F50">
         <v>61.5</v>
@@ -4152,13 +4141,10 @@
         <v>19</v>
       </c>
       <c r="T50">
-        <v>299.5</v>
-      </c>
-      <c r="U50">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:20">
       <c r="A51">
         <v>1459620</v>
       </c>
@@ -4172,7 +4158,7 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="E51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F51">
         <v>67.5</v>
@@ -4217,13 +4203,10 @@
         <v>18</v>
       </c>
       <c r="T51">
-        <v>296</v>
-      </c>
-      <c r="U51">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:20">
       <c r="A52">
         <v>1459621</v>
       </c>
@@ -4237,7 +4220,7 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F52">
         <v>63.5</v>
@@ -4282,13 +4265,10 @@
         <v>19</v>
       </c>
       <c r="T52">
-        <v>296</v>
-      </c>
-      <c r="U52">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:20">
       <c r="A53">
         <v>1459625</v>
       </c>
@@ -4302,7 +4282,7 @@
         <v>0.72070000000000001</v>
       </c>
       <c r="E53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F53">
         <v>69.5</v>
@@ -4347,13 +4327,10 @@
         <v>22</v>
       </c>
       <c r="T53">
-        <v>295.5</v>
-      </c>
-      <c r="U53">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:20">
       <c r="A54">
         <v>1459645</v>
       </c>
@@ -4367,7 +4344,7 @@
         <v>0.71709999999999996</v>
       </c>
       <c r="E54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F54">
         <v>56</v>
@@ -4412,13 +4389,10 @@
         <v>22</v>
       </c>
       <c r="T54">
-        <v>294</v>
-      </c>
-      <c r="U54">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55">
         <v>1459531</v>
       </c>
@@ -4432,7 +4406,7 @@
         <v>0.71589999999999998</v>
       </c>
       <c r="E55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F55">
         <v>46</v>
@@ -4477,13 +4451,10 @@
         <v>18</v>
       </c>
       <c r="T55">
-        <v>293.5</v>
-      </c>
-      <c r="U55">
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:20">
       <c r="A56">
         <v>1459593</v>
       </c>
@@ -4497,7 +4468,7 @@
         <v>0.70850000000000002</v>
       </c>
       <c r="E56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F56">
         <v>56</v>
@@ -4542,13 +4513,10 @@
         <v>18</v>
       </c>
       <c r="T56">
-        <v>290.5</v>
-      </c>
-      <c r="U56">
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:20">
       <c r="A57">
         <v>1459628</v>
       </c>
@@ -4562,7 +4530,7 @@
         <v>0.70850000000000002</v>
       </c>
       <c r="E57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F57">
         <v>63</v>
@@ -4607,13 +4575,10 @@
         <v>19</v>
       </c>
       <c r="T57">
-        <v>290.5</v>
-      </c>
-      <c r="U57">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:20">
       <c r="A58">
         <v>1459602</v>
       </c>
@@ -4627,7 +4592,7 @@
         <v>0.70609999999999995</v>
       </c>
       <c r="E58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F58">
         <v>48</v>
@@ -4672,13 +4637,10 @@
         <v>20</v>
       </c>
       <c r="T58">
-        <v>289.5</v>
-      </c>
-      <c r="U58">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:20">
       <c r="A59">
         <v>1459609</v>
       </c>
@@ -4692,7 +4654,7 @@
         <v>0.70609999999999995</v>
       </c>
       <c r="E59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F59">
         <v>51.5</v>
@@ -4737,13 +4699,10 @@
         <v>19</v>
       </c>
       <c r="T59">
-        <v>289.5</v>
-      </c>
-      <c r="U59">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:20">
       <c r="A60">
         <v>1459644</v>
       </c>
@@ -4757,7 +4716,7 @@
         <v>0.70609999999999995</v>
       </c>
       <c r="E60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F60">
         <v>62.5</v>
@@ -4802,13 +4761,10 @@
         <v>23</v>
       </c>
       <c r="T60">
-        <v>289.5</v>
-      </c>
-      <c r="U60">
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:20">
       <c r="A61">
         <v>1459605</v>
       </c>
@@ -4822,7 +4778,7 @@
         <v>0.70120000000000005</v>
       </c>
       <c r="E61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F61">
         <v>56</v>
@@ -4867,13 +4823,10 @@
         <v>19</v>
       </c>
       <c r="T61">
-        <v>287.5</v>
-      </c>
-      <c r="U61">
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:20">
       <c r="A62">
         <v>1459556</v>
       </c>
@@ -4887,7 +4840,7 @@
         <v>0.69879999999999998</v>
       </c>
       <c r="E62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F62">
         <v>66</v>
@@ -4932,13 +4885,10 @@
         <v>15</v>
       </c>
       <c r="T62">
-        <v>286.5</v>
-      </c>
-      <c r="U62">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:20">
       <c r="A63">
         <v>1459546</v>
       </c>
@@ -4952,7 +4902,7 @@
         <v>0.69630000000000003</v>
       </c>
       <c r="E63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F63">
         <v>40</v>
@@ -4997,13 +4947,10 @@
         <v>18</v>
       </c>
       <c r="T63">
-        <v>285.5</v>
-      </c>
-      <c r="U63">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:20">
       <c r="A64">
         <v>1459619</v>
       </c>
@@ -5017,7 +4964,7 @@
         <v>0.69630000000000003</v>
       </c>
       <c r="E64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F64">
         <v>66.5</v>
@@ -5062,13 +5009,10 @@
         <v>18</v>
       </c>
       <c r="T64">
-        <v>285.5</v>
-      </c>
-      <c r="U64">
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:20">
       <c r="A65">
         <v>1459583</v>
       </c>
@@ -5082,7 +5026,7 @@
         <v>0.69389999999999996</v>
       </c>
       <c r="E65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F65">
         <v>46</v>
@@ -5127,13 +5071,10 @@
         <v>19</v>
       </c>
       <c r="T65">
-        <v>284.5</v>
-      </c>
-      <c r="U65">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66">
         <v>1459643</v>
       </c>
@@ -5147,7 +5088,7 @@
         <v>0.69389999999999996</v>
       </c>
       <c r="E66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F66">
         <v>56.5</v>
@@ -5192,13 +5133,10 @@
         <v>21</v>
       </c>
       <c r="T66">
-        <v>284.5</v>
-      </c>
-      <c r="U66">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:20">
       <c r="A67">
         <v>1459574</v>
       </c>
@@ -5212,7 +5150,7 @@
         <v>0.6915</v>
       </c>
       <c r="E67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F67">
         <v>41.5</v>
@@ -5257,13 +5195,10 @@
         <v>16</v>
       </c>
       <c r="T67">
-        <v>283.5</v>
-      </c>
-      <c r="U67">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:20">
       <c r="A68">
         <v>1459550</v>
       </c>
@@ -5277,7 +5212,7 @@
         <v>0.69020000000000004</v>
       </c>
       <c r="E68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F68">
         <v>46.5</v>
@@ -5322,13 +5257,10 @@
         <v>16</v>
       </c>
       <c r="T68">
-        <v>283</v>
-      </c>
-      <c r="U68">
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:20">
       <c r="A69">
         <v>1459560</v>
       </c>
@@ -5342,7 +5274,7 @@
         <v>0.68410000000000004</v>
       </c>
       <c r="E69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F69">
         <v>63</v>
@@ -5387,13 +5319,10 @@
         <v>18</v>
       </c>
       <c r="T69">
-        <v>280.5</v>
-      </c>
-      <c r="U69">
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:20">
       <c r="A70">
         <v>1459551</v>
       </c>
@@ -5407,7 +5336,7 @@
         <v>0.68289999999999995</v>
       </c>
       <c r="E70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F70">
         <v>69</v>
@@ -5452,13 +5381,10 @@
         <v>14</v>
       </c>
       <c r="T70">
-        <v>280</v>
-      </c>
-      <c r="U70">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:20">
       <c r="A71">
         <v>1459631</v>
       </c>
@@ -5472,7 +5398,7 @@
         <v>0.68289999999999995</v>
       </c>
       <c r="E71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F71">
         <v>58.5</v>
@@ -5517,13 +5443,10 @@
         <v>16</v>
       </c>
       <c r="T71">
-        <v>280</v>
-      </c>
-      <c r="U71">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:20">
       <c r="A72">
         <v>1459544</v>
       </c>
@@ -5537,7 +5460,7 @@
         <v>0.68049999999999999</v>
       </c>
       <c r="E72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F72">
         <v>45</v>
@@ -5582,13 +5505,10 @@
         <v>15</v>
       </c>
       <c r="T72">
-        <v>279</v>
-      </c>
-      <c r="U72">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:20">
       <c r="A73">
         <v>1459610</v>
       </c>
@@ -5602,7 +5522,7 @@
         <v>0.68049999999999999</v>
       </c>
       <c r="E73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F73">
         <v>29.5</v>
@@ -5647,13 +5567,10 @@
         <v>19</v>
       </c>
       <c r="T73">
-        <v>279</v>
-      </c>
-      <c r="U73">
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:20">
       <c r="A74">
         <v>1459536</v>
       </c>
@@ -5667,7 +5584,7 @@
         <v>0.67679999999999996</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F74">
         <v>50.5</v>
@@ -5712,13 +5629,10 @@
         <v>16</v>
       </c>
       <c r="T74">
-        <v>277.5</v>
-      </c>
-      <c r="U74">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:20">
       <c r="A75">
         <v>1459553</v>
       </c>
@@ -5732,7 +5646,7 @@
         <v>0.67069999999999996</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F75">
         <v>65</v>
@@ -5777,13 +5691,10 @@
         <v>16</v>
       </c>
       <c r="T75">
-        <v>275</v>
-      </c>
-      <c r="U75">
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:20">
       <c r="A76">
         <v>1459649</v>
       </c>
@@ -5797,7 +5708,7 @@
         <v>0.66830000000000001</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F76">
         <v>70</v>
@@ -5842,13 +5753,10 @@
         <v>24</v>
       </c>
       <c r="T76">
-        <v>274</v>
-      </c>
-      <c r="U76">
         <v>29.5</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:20">
       <c r="A77">
         <v>1459592</v>
       </c>
@@ -5862,7 +5770,7 @@
         <v>0.66459999999999997</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F77">
         <v>42</v>
@@ -5907,13 +5815,10 @@
         <v>19</v>
       </c>
       <c r="T77">
-        <v>272.5</v>
-      </c>
-      <c r="U77">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:20">
       <c r="A78">
         <v>1459607</v>
       </c>
@@ -5927,7 +5832,7 @@
         <v>0.66220000000000001</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F78">
         <v>40.5</v>
@@ -5972,13 +5877,10 @@
         <v>18</v>
       </c>
       <c r="T78">
-        <v>271.5</v>
-      </c>
-      <c r="U78">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:20">
       <c r="A79">
         <v>1459557</v>
       </c>
@@ -5992,7 +5894,7 @@
         <v>0.65980000000000005</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F79">
         <v>53.5</v>
@@ -6037,13 +5939,10 @@
         <v>15</v>
       </c>
       <c r="T79">
-        <v>270.5</v>
-      </c>
-      <c r="U79">
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:20">
       <c r="A80">
         <v>1459639</v>
       </c>
@@ -6057,7 +5956,7 @@
         <v>0.65849999999999997</v>
       </c>
       <c r="E80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F80">
         <v>53</v>
@@ -6102,13 +6001,10 @@
         <v>18</v>
       </c>
       <c r="T80">
-        <v>270</v>
-      </c>
-      <c r="U80">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81">
         <v>1459616</v>
       </c>
@@ -6122,7 +6018,7 @@
         <v>0.6573</v>
       </c>
       <c r="E81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F81">
         <v>67.5</v>
@@ -6167,13 +6063,10 @@
         <v>18</v>
       </c>
       <c r="T81">
-        <v>269.5</v>
-      </c>
-      <c r="U81">
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:20">
       <c r="A82">
         <v>1459622</v>
       </c>
@@ -6187,7 +6080,7 @@
         <v>0.65610000000000002</v>
       </c>
       <c r="E82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F82">
         <v>65.5</v>
@@ -6232,13 +6125,10 @@
         <v>21</v>
       </c>
       <c r="T82">
-        <v>269</v>
-      </c>
-      <c r="U82">
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:20">
       <c r="A83">
         <v>1459600</v>
       </c>
@@ -6252,7 +6142,7 @@
         <v>0.6512</v>
       </c>
       <c r="E83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F83">
         <v>58.5</v>
@@ -6297,13 +6187,10 @@
         <v>24</v>
       </c>
       <c r="T83">
-        <v>267</v>
-      </c>
-      <c r="U83">
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:20">
       <c r="A84">
         <v>1459559</v>
       </c>
@@ -6317,7 +6204,7 @@
         <v>0.65</v>
       </c>
       <c r="E84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F84">
         <v>54.5</v>
@@ -6362,13 +6249,10 @@
         <v>17</v>
       </c>
       <c r="T84">
-        <v>266.5</v>
-      </c>
-      <c r="U84">
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:20">
       <c r="A85">
         <v>1459618</v>
       </c>
@@ -6382,7 +6266,7 @@
         <v>0.64880000000000004</v>
       </c>
       <c r="E85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F85">
         <v>50</v>
@@ -6427,13 +6311,10 @@
         <v>17</v>
       </c>
       <c r="T85">
-        <v>266</v>
-      </c>
-      <c r="U85">
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:20">
       <c r="A86">
         <v>1459533</v>
       </c>
@@ -6447,7 +6328,7 @@
         <v>0.64759999999999995</v>
       </c>
       <c r="E86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F86">
         <v>44.5</v>
@@ -6492,13 +6373,10 @@
         <v>15</v>
       </c>
       <c r="T86">
-        <v>265.5</v>
-      </c>
-      <c r="U86">
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:20">
       <c r="A87">
         <v>1459554</v>
       </c>
@@ -6512,7 +6390,7 @@
         <v>0.64759999999999995</v>
       </c>
       <c r="E87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F87">
         <v>61</v>
@@ -6557,13 +6435,10 @@
         <v>16</v>
       </c>
       <c r="T87">
-        <v>265.5</v>
-      </c>
-      <c r="U87">
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:20">
       <c r="A88">
         <v>1459540</v>
       </c>
@@ -6577,7 +6452,7 @@
         <v>0.64390000000000003</v>
       </c>
       <c r="E88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F88">
         <v>47.5</v>
@@ -6622,13 +6497,10 @@
         <v>20</v>
       </c>
       <c r="T88">
-        <v>264</v>
-      </c>
-      <c r="U88">
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:20">
       <c r="A89">
         <v>1459626</v>
       </c>
@@ -6642,7 +6514,7 @@
         <v>0.64390000000000003</v>
       </c>
       <c r="E89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F89">
         <v>59</v>
@@ -6687,13 +6559,10 @@
         <v>22</v>
       </c>
       <c r="T89">
-        <v>264</v>
-      </c>
-      <c r="U89">
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:20">
       <c r="A90">
         <v>1459599</v>
       </c>
@@ -6707,7 +6576,7 @@
         <v>0.64270000000000005</v>
       </c>
       <c r="E90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F90">
         <v>55.5</v>
@@ -6752,13 +6621,10 @@
         <v>19</v>
       </c>
       <c r="T90">
-        <v>263.5</v>
-      </c>
-      <c r="U90">
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:20">
       <c r="A91">
         <v>1459573</v>
       </c>
@@ -6772,7 +6638,7 @@
         <v>0.64149999999999996</v>
       </c>
       <c r="E91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F91">
         <v>43</v>
@@ -6817,13 +6683,10 @@
         <v>19</v>
       </c>
       <c r="T91">
-        <v>263</v>
-      </c>
-      <c r="U91">
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:20">
       <c r="A92">
         <v>1459532</v>
       </c>
@@ -6837,7 +6700,7 @@
         <v>0.64019999999999999</v>
       </c>
       <c r="E92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F92">
         <v>47</v>
@@ -6882,13 +6745,10 @@
         <v>16</v>
       </c>
       <c r="T92">
-        <v>262.5</v>
-      </c>
-      <c r="U92">
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:20">
       <c r="A93">
         <v>1459555</v>
       </c>
@@ -6902,7 +6762,7 @@
         <v>0.63900000000000001</v>
       </c>
       <c r="E93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F93">
         <v>63</v>
@@ -6947,13 +6807,10 @@
         <v>20</v>
       </c>
       <c r="T93">
-        <v>262</v>
-      </c>
-      <c r="U93">
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:20">
       <c r="A94">
         <v>1459634</v>
       </c>
@@ -6967,7 +6824,7 @@
         <v>0.63900000000000001</v>
       </c>
       <c r="E94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F94">
         <v>47</v>
@@ -7012,13 +6869,10 @@
         <v>20</v>
       </c>
       <c r="T94">
-        <v>262</v>
-      </c>
-      <c r="U94">
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:20">
       <c r="A95">
         <v>1459642</v>
       </c>
@@ -7032,7 +6886,7 @@
         <v>0.63660000000000005</v>
       </c>
       <c r="E95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F95">
         <v>52.5</v>
@@ -7077,13 +6931,10 @@
         <v>21</v>
       </c>
       <c r="T95">
-        <v>261</v>
-      </c>
-      <c r="U95">
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:20">
       <c r="A96">
         <v>1459590</v>
       </c>
@@ -7097,7 +6948,7 @@
         <v>0.63539999999999996</v>
       </c>
       <c r="E96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F96">
         <v>53</v>
@@ -7142,13 +6993,10 @@
         <v>17</v>
       </c>
       <c r="T96">
-        <v>260.5</v>
-      </c>
-      <c r="U96">
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:20">
       <c r="A97">
         <v>1459538</v>
       </c>
@@ -7162,7 +7010,7 @@
         <v>0.6341</v>
       </c>
       <c r="E97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F97">
         <v>40</v>
@@ -7207,13 +7055,10 @@
         <v>14</v>
       </c>
       <c r="T97">
-        <v>260</v>
-      </c>
-      <c r="U97">
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:20">
       <c r="A98">
         <v>1459558</v>
       </c>
@@ -7227,7 +7072,7 @@
         <v>0.63290000000000002</v>
       </c>
       <c r="E98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F98">
         <v>56.5</v>
@@ -7272,13 +7117,10 @@
         <v>19</v>
       </c>
       <c r="T98">
-        <v>259.5</v>
-      </c>
-      <c r="U98">
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:20">
       <c r="A99">
         <v>1459647</v>
       </c>
@@ -7292,7 +7134,7 @@
         <v>0.63170000000000004</v>
       </c>
       <c r="E99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F99">
         <v>55.5</v>
@@ -7337,13 +7179,10 @@
         <v>15</v>
       </c>
       <c r="T99">
-        <v>259</v>
-      </c>
-      <c r="U99">
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:20">
       <c r="A100">
         <v>1459648</v>
       </c>
@@ -7357,7 +7196,7 @@
         <v>0.63170000000000004</v>
       </c>
       <c r="E100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F100">
         <v>61.5</v>
@@ -7402,13 +7241,10 @@
         <v>18</v>
       </c>
       <c r="T100">
-        <v>259</v>
-      </c>
-      <c r="U100">
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:20">
       <c r="A101">
         <v>1459598</v>
       </c>
@@ -7422,7 +7258,7 @@
         <v>0.63049999999999995</v>
       </c>
       <c r="E101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F101">
         <v>47.5</v>
@@ -7467,13 +7303,10 @@
         <v>17</v>
       </c>
       <c r="T101">
-        <v>258.5</v>
-      </c>
-      <c r="U101">
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:20">
       <c r="A102">
         <v>1459633</v>
       </c>
@@ -7487,7 +7320,7 @@
         <v>0.63049999999999995</v>
       </c>
       <c r="E102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F102">
         <v>65.5</v>
@@ -7532,13 +7365,10 @@
         <v>17</v>
       </c>
       <c r="T102">
-        <v>258.5</v>
-      </c>
-      <c r="U102">
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:20">
       <c r="A103">
         <v>1459641</v>
       </c>
@@ -7552,7 +7382,7 @@
         <v>0.63049999999999995</v>
       </c>
       <c r="E103" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F103">
         <v>46.5</v>
@@ -7597,13 +7427,10 @@
         <v>19</v>
       </c>
       <c r="T103">
-        <v>258.5</v>
-      </c>
-      <c r="U103">
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:20">
       <c r="A104">
         <v>1459547</v>
       </c>
@@ -7617,7 +7444,7 @@
         <v>0.62929999999999997</v>
       </c>
       <c r="E104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F104">
         <v>40</v>
@@ -7662,13 +7489,10 @@
         <v>20</v>
       </c>
       <c r="T104">
-        <v>258</v>
-      </c>
-      <c r="U104">
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:20">
       <c r="A105">
         <v>1459552</v>
       </c>
@@ -7682,7 +7506,7 @@
         <v>0.628</v>
       </c>
       <c r="E105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F105">
         <v>64.5</v>
@@ -7727,13 +7551,10 @@
         <v>15</v>
       </c>
       <c r="T105">
-        <v>257.5</v>
-      </c>
-      <c r="U105">
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:20">
       <c r="A106">
         <v>1459580</v>
       </c>
@@ -7747,7 +7568,7 @@
         <v>0.628</v>
       </c>
       <c r="E106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F106">
         <v>48</v>
@@ -7792,13 +7613,10 @@
         <v>18</v>
       </c>
       <c r="T106">
-        <v>257.5</v>
-      </c>
-      <c r="U106">
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:20">
       <c r="A107">
         <v>1459640</v>
       </c>
@@ -7812,7 +7630,7 @@
         <v>0.628</v>
       </c>
       <c r="E107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F107">
         <v>50.5</v>
@@ -7857,13 +7675,10 @@
         <v>20</v>
       </c>
       <c r="T107">
-        <v>257.5</v>
-      </c>
-      <c r="U107">
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:20">
       <c r="A108">
         <v>1459570</v>
       </c>
@@ -7877,7 +7692,7 @@
         <v>0.61339999999999995</v>
       </c>
       <c r="E108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F108">
         <v>53</v>
@@ -7922,13 +7737,10 @@
         <v>18</v>
       </c>
       <c r="T108">
-        <v>251.5</v>
-      </c>
-      <c r="U108">
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:20">
       <c r="A109">
         <v>1459632</v>
       </c>
@@ -7942,7 +7754,7 @@
         <v>0.60980000000000001</v>
       </c>
       <c r="E109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F109">
         <v>56.5</v>
@@ -7987,13 +7799,10 @@
         <v>20</v>
       </c>
       <c r="T109">
-        <v>250</v>
-      </c>
-      <c r="U109">
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:20">
       <c r="A110">
         <v>1459534</v>
       </c>
@@ -8007,7 +7816,7 @@
         <v>0.6</v>
       </c>
       <c r="E110" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F110">
         <v>15.5</v>
@@ -8052,13 +7861,10 @@
         <v>18</v>
       </c>
       <c r="T110">
-        <v>246</v>
-      </c>
-      <c r="U110">
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:20">
       <c r="A111">
         <v>1459539</v>
       </c>
@@ -8072,7 +7878,7 @@
         <v>0.6</v>
       </c>
       <c r="E111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F111">
         <v>40</v>
@@ -8117,13 +7923,10 @@
         <v>13</v>
       </c>
       <c r="T111">
-        <v>246</v>
-      </c>
-      <c r="U111">
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:20">
       <c r="A112">
         <v>1459608</v>
       </c>
@@ -8137,7 +7940,7 @@
         <v>0.58660000000000001</v>
       </c>
       <c r="E112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F112">
         <v>54</v>
@@ -8182,13 +7985,10 @@
         <v>19</v>
       </c>
       <c r="T112">
-        <v>240.5</v>
-      </c>
-      <c r="U112">
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:20">
       <c r="A113">
         <v>1459549</v>
       </c>
@@ -8202,7 +8002,7 @@
         <v>0.58540000000000003</v>
       </c>
       <c r="E113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F113">
         <v>29</v>
@@ -8247,13 +8047,10 @@
         <v>9</v>
       </c>
       <c r="T113">
-        <v>240</v>
-      </c>
-      <c r="U113">
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:20">
       <c r="A114">
         <v>1459635</v>
       </c>
@@ -8267,7 +8064,7 @@
         <v>0.58169999999999999</v>
       </c>
       <c r="E114" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F114">
         <v>52.5</v>
@@ -8312,13 +8109,10 @@
         <v>18</v>
       </c>
       <c r="T114">
-        <v>238.5</v>
-      </c>
-      <c r="U114">
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:20">
       <c r="A115">
         <v>1459595</v>
       </c>
@@ -8332,7 +8126,7 @@
         <v>0.57799999999999996</v>
       </c>
       <c r="E115" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F115">
         <v>57</v>
@@ -8377,13 +8171,10 @@
         <v>15</v>
       </c>
       <c r="T115">
-        <v>237</v>
-      </c>
-      <c r="U115">
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:20">
       <c r="A116">
         <v>1459652</v>
       </c>
@@ -8397,7 +8188,7 @@
         <v>0.57679999999999998</v>
       </c>
       <c r="E116" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F116">
         <v>53.5</v>
@@ -8442,13 +8233,10 @@
         <v>19</v>
       </c>
       <c r="T116">
-        <v>236.5</v>
-      </c>
-      <c r="U116">
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:20">
       <c r="A117">
         <v>1459613</v>
       </c>
@@ -8462,7 +8250,7 @@
         <v>0.57320000000000004</v>
       </c>
       <c r="E117" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F117">
         <v>63</v>
@@ -8507,13 +8295,10 @@
         <v>18</v>
       </c>
       <c r="T117">
-        <v>235</v>
-      </c>
-      <c r="U117">
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:20">
       <c r="A118">
         <v>1459542</v>
       </c>
@@ -8527,7 +8312,7 @@
         <v>0.57199999999999995</v>
       </c>
       <c r="E118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F118">
         <v>40.5</v>
@@ -8572,13 +8357,10 @@
         <v>19</v>
       </c>
       <c r="T118">
-        <v>234.5</v>
-      </c>
-      <c r="U118">
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:20">
       <c r="A119">
         <v>1459653</v>
       </c>
@@ -8592,7 +8374,7 @@
         <v>0.55610000000000004</v>
       </c>
       <c r="E119" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F119">
         <v>58.5</v>
@@ -8637,13 +8419,10 @@
         <v>21</v>
       </c>
       <c r="T119">
-        <v>228</v>
-      </c>
-      <c r="U119">
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:20">
       <c r="A120">
         <v>1459579</v>
       </c>
@@ -8657,7 +8436,7 @@
         <v>0.55369999999999997</v>
       </c>
       <c r="E120" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F120">
         <v>26</v>
@@ -8702,13 +8481,10 @@
         <v>15</v>
       </c>
       <c r="T120">
-        <v>227</v>
-      </c>
-      <c r="U120">
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:20">
       <c r="A121">
         <v>1459650</v>
       </c>
@@ -8722,7 +8498,7 @@
         <v>0.54510000000000003</v>
       </c>
       <c r="E121" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F121">
         <v>41.5</v>
@@ -8767,13 +8543,10 @@
         <v>18</v>
       </c>
       <c r="T121">
-        <v>223.5</v>
-      </c>
-      <c r="U121">
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:20">
       <c r="A122">
         <v>1459654</v>
       </c>
@@ -8787,7 +8560,7 @@
         <v>0.53779999999999994</v>
       </c>
       <c r="E122" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F122">
         <v>50.5</v>
@@ -8832,13 +8605,10 @@
         <v>16</v>
       </c>
       <c r="T122">
-        <v>220.5</v>
-      </c>
-      <c r="U122">
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:20">
       <c r="A123">
         <v>1459630</v>
       </c>
@@ -8852,7 +8622,7 @@
         <v>0.52680000000000005</v>
       </c>
       <c r="E123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F123">
         <v>52.5</v>
@@ -8897,13 +8667,10 @@
         <v>19</v>
       </c>
       <c r="T123">
-        <v>216</v>
-      </c>
-      <c r="U123">
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:20">
       <c r="A124">
         <v>1459572</v>
       </c>
@@ -8917,7 +8684,7 @@
         <v>0.46100000000000002</v>
       </c>
       <c r="E124" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F124">
         <v>40</v>
@@ -8962,13 +8729,10 @@
         <v>16</v>
       </c>
       <c r="T124">
-        <v>189</v>
-      </c>
-      <c r="U124">
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:20">
       <c r="A125">
         <v>1459548</v>
       </c>
@@ -8982,7 +8746,7 @@
         <v>0.43049999999999999</v>
       </c>
       <c r="E125" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F125">
         <v>27.5</v>
@@ -9027,9 +8791,6 @@
         <v>8</v>
       </c>
       <c r="T125">
-        <v>176.5</v>
-      </c>
-      <c r="U125">
         <v>15</v>
       </c>
     </row>
@@ -9039,4 +8800,220 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB56F7E9-DDCA-4157-BD24-2A6E50C3EBB2}">
+  <dimension ref="A2:T11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="14.4" customHeight="1">
+      <c r="G2" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:20" ht="14.4" customHeight="1">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="G4" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:20" ht="30" customHeight="1">
+      <c r="G5" s="10">
+        <v>1459551</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="10" spans="1:20" ht="44.4" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="8" customFormat="1" ht="83.4" customHeight="1">
+      <c r="A11" s="11">
+        <f>G5</f>
+        <v>1459551</v>
+      </c>
+      <c r="B11" s="12" t="str">
+        <f>VLOOKUP($G$5,Sheet1!A2:T125,2,FALSE)</f>
+        <v>هاجر محمد مصطفى محمود رضوان</v>
+      </c>
+      <c r="C11" s="11">
+        <f>VLOOKUP(G5,Sheet1!A2:T125,3,FALSE)</f>
+        <v>280</v>
+      </c>
+      <c r="D11" s="13">
+        <f>VLOOKUP(G5,Sheet1!A2:T125,4,FALSE)</f>
+        <v>0.68289999999999995</v>
+      </c>
+      <c r="E11" s="11" t="str">
+        <f>VLOOKUP(G5,Sheet1!A2:T125,5,FALSE)</f>
+        <v>ناجح</v>
+      </c>
+      <c r="F11" s="11">
+        <f>VLOOKUP(G5,Sheet1!A2:T125,6,FALSE)</f>
+        <v>69</v>
+      </c>
+      <c r="G11" s="11">
+        <f>VLOOKUP(G5,Sheet1!A2:T125,7,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="H11" s="11">
+        <f>VLOOKUP($G$5,Sheet1!$A$2:$T$125,8,FALSE)</f>
+        <v>32.5</v>
+      </c>
+      <c r="I11" s="11">
+        <f>VLOOKUP($G$5,Sheet1!$A$2:$T$125,9,FALSE)</f>
+        <v>49.5</v>
+      </c>
+      <c r="J11" s="11">
+        <f>VLOOKUP($G$5,Sheet1!$A$2:$T$125,10,FALSE)</f>
+        <v>33</v>
+      </c>
+      <c r="K11" s="11">
+        <f>VLOOKUP($G$5,Sheet1!$A$2:$T$125,11,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="L11" s="11">
+        <f>VLOOKUP($G$5,Sheet1!$A$2:$T$125,12,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="M11" s="11" t="str">
+        <f>VLOOKUP($G$5,Sheet1!$A$2:$T$125,13,FALSE)</f>
+        <v>غير مقرر</v>
+      </c>
+      <c r="N11" s="11" t="str">
+        <f>VLOOKUP($G$5,Sheet1!$A$2:$T$125,14,FALSE)</f>
+        <v>غير مقرر</v>
+      </c>
+      <c r="O11" s="11" t="str">
+        <f>VLOOKUP($G$5,Sheet1!$A$2:$T$125,15,FALSE)</f>
+        <v>غير مقرر</v>
+      </c>
+      <c r="P11" s="11" t="str">
+        <f>VLOOKUP($G$5,Sheet1!$A$2:$T$125,16,FALSE)</f>
+        <v>غير مقرر</v>
+      </c>
+      <c r="Q11" s="11" t="str">
+        <f>VLOOKUP($G$5,Sheet1!$A$2:$T$125,17,FALSE)</f>
+        <v>غير مقرر</v>
+      </c>
+      <c r="R11" s="11" t="str">
+        <f>VLOOKUP($G$5,Sheet1!$A$2:$T$125,18,FALSE)</f>
+        <v>غير مقرر</v>
+      </c>
+      <c r="S11" s="11">
+        <f>VLOOKUP($G$5,Sheet1!$A$2:$T$125,19,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="T11" s="11">
+        <f>VLOOKUP($G$5,Sheet1!$A$2:$T$125,20,FALSE)</f>
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:N3"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="G5:N5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>